--- a/3veh_2clusters_3clustdist_datapts/3veh_2clusters_1bd_2.xlsx
+++ b/3veh_2clusters_3clustdist_datapts/3veh_2clusters_1bd_2.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -461,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>12434.4</v>
+        <v>12766.6</v>
       </c>
       <c r="C3" t="n">
-        <v>14168.55</v>
+        <v>13522.66666666667</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>11668.8</v>
+        <v>12333.2</v>
       </c>
       <c r="C4" t="n">
-        <v>15137.1</v>
+        <v>13845.33333333333</v>
       </c>
     </row>
     <row r="5">
@@ -483,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10903.2</v>
+        <v>11899.8</v>
       </c>
       <c r="C5" t="n">
-        <v>16105.65</v>
+        <v>14168</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +494,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>10137.6</v>
+        <v>11466.4</v>
       </c>
       <c r="C6" t="n">
-        <v>17074.2</v>
+        <v>14490.66666666667</v>
       </c>
     </row>
     <row r="7">
@@ -505,10 +505,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>12672</v>
+        <v>14217.34285714286</v>
       </c>
       <c r="C7" t="n">
-        <v>16369.65</v>
+        <v>15056.17142857143</v>
       </c>
     </row>
     <row r="8">
@@ -516,10 +516,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>15206.4</v>
+        <v>16968.28571428571</v>
       </c>
       <c r="C8" t="n">
-        <v>15665.1</v>
+        <v>15621.67619047619</v>
       </c>
     </row>
     <row r="9">
@@ -527,10 +527,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>17740.8</v>
+        <v>19719.22857142857</v>
       </c>
       <c r="C9" t="n">
-        <v>14960.55</v>
+        <v>16187.18095238095</v>
       </c>
     </row>
     <row r="10">
@@ -538,10 +538,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>20275.2</v>
+        <v>22470.17142857143</v>
       </c>
       <c r="C10" t="n">
-        <v>14256</v>
+        <v>16752.68571428572</v>
       </c>
     </row>
     <row r="11">
@@ -549,10 +549,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>11880</v>
+        <v>11299.2</v>
       </c>
       <c r="C11" t="n">
-        <v>13094.4</v>
+        <v>9820.800000000001</v>
       </c>
     </row>
     <row r="12">
@@ -560,10 +560,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>13675.2</v>
+        <v>11404.8</v>
       </c>
       <c r="C12" t="n">
-        <v>15206.4</v>
+        <v>7444.799999999999</v>
       </c>
     </row>
     <row r="13">
@@ -571,10 +571,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>13094.4</v>
+        <v>13886.4</v>
       </c>
       <c r="C13" t="n">
-        <v>14995.2</v>
+        <v>13992</v>
       </c>
     </row>
     <row r="14">
@@ -582,10 +582,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5596.8</v>
+        <v>12196.8</v>
       </c>
       <c r="C14" t="n">
-        <v>10190.4</v>
+        <v>6969.6</v>
       </c>
     </row>
     <row r="15">
@@ -593,10 +593,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>15259.2</v>
+        <v>10771.2</v>
       </c>
       <c r="C15" t="n">
-        <v>12144</v>
+        <v>8764.799999999999</v>
       </c>
     </row>
     <row r="16">
@@ -604,10 +604,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>14784</v>
+        <v>7920</v>
       </c>
       <c r="C16" t="n">
-        <v>6494.4</v>
+        <v>15364.8</v>
       </c>
     </row>
     <row r="17">
@@ -615,10 +615,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>10243.2</v>
+        <v>15787.2</v>
       </c>
       <c r="C17" t="n">
-        <v>7867.2</v>
+        <v>5755.200000000001</v>
       </c>
     </row>
     <row r="18">
@@ -626,10 +626,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>11035.2</v>
+        <v>14361.6</v>
       </c>
       <c r="C18" t="n">
-        <v>11352</v>
+        <v>11668.8</v>
       </c>
     </row>
     <row r="19">
@@ -637,10 +637,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5438.400000000001</v>
+        <v>9292.799999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>7550.4</v>
+        <v>8289.6</v>
       </c>
     </row>
     <row r="20">
@@ -648,10 +648,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>18796.8</v>
+        <v>22968</v>
       </c>
       <c r="C20" t="n">
-        <v>20222.4</v>
+        <v>15364.8</v>
       </c>
     </row>
     <row r="21">
@@ -659,10 +659,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>23918.4</v>
+        <v>23073.6</v>
       </c>
       <c r="C21" t="n">
-        <v>12249.6</v>
+        <v>17529.6</v>
       </c>
     </row>
     <row r="22">
@@ -670,10 +670,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>24235.2</v>
+        <v>17265.6</v>
       </c>
       <c r="C22" t="n">
-        <v>12038.4</v>
+        <v>18691.2</v>
       </c>
     </row>
     <row r="23">
@@ -681,10 +681,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>22334.4</v>
+        <v>26188.8</v>
       </c>
       <c r="C23" t="n">
-        <v>11880</v>
+        <v>20803.2</v>
       </c>
     </row>
     <row r="24">
@@ -692,10 +692,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>15840</v>
+        <v>22334.4</v>
       </c>
       <c r="C24" t="n">
-        <v>19747.2</v>
+        <v>11035.2</v>
       </c>
     </row>
     <row r="25">
@@ -703,10 +703,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>18057.6</v>
+        <v>15892.8</v>
       </c>
       <c r="C25" t="n">
-        <v>12830.4</v>
+        <v>11985.6</v>
       </c>
     </row>
     <row r="26">
@@ -714,10 +714,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>26188.8</v>
+        <v>25766.4</v>
       </c>
       <c r="C26" t="n">
-        <v>19747.2</v>
+        <v>13780.8</v>
       </c>
     </row>
     <row r="27">
@@ -725,10 +725,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>18902.4</v>
+        <v>19694.4</v>
       </c>
       <c r="C27" t="n">
-        <v>20697.6</v>
+        <v>20064</v>
       </c>
     </row>
     <row r="28">
@@ -736,10 +736,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>10982.4</v>
+        <v>8606.4</v>
       </c>
       <c r="C28" t="n">
-        <v>23020.8</v>
+        <v>21648</v>
       </c>
     </row>
     <row r="29">
@@ -747,10 +747,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>7444.799999999999</v>
+        <v>9873.6</v>
       </c>
       <c r="C29" t="n">
-        <v>25766.4</v>
+        <v>16526.4</v>
       </c>
     </row>
     <row r="30">
@@ -758,10 +758,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>12566.4</v>
+        <v>11457.6</v>
       </c>
       <c r="C30" t="n">
-        <v>26030.4</v>
+        <v>24763.2</v>
       </c>
     </row>
     <row r="31">
@@ -769,10 +769,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>14731.2</v>
+        <v>6916.8</v>
       </c>
       <c r="C31" t="n">
-        <v>19008</v>
+        <v>18216</v>
       </c>
     </row>
     <row r="32">
@@ -780,10 +780,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>9081.6</v>
+        <v>9662.4</v>
       </c>
       <c r="C32" t="n">
-        <v>17582.4</v>
+        <v>16209.6</v>
       </c>
     </row>
     <row r="33">
@@ -791,10 +791,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>6811.2</v>
+        <v>10507.2</v>
       </c>
       <c r="C33" t="n">
-        <v>16526.4</v>
+        <v>24499.2</v>
       </c>
     </row>
     <row r="34">
@@ -802,10 +802,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>8448</v>
+        <v>12249.6</v>
       </c>
       <c r="C34" t="n">
-        <v>22228.8</v>
+        <v>21489.6</v>
       </c>
     </row>
     <row r="35">
@@ -813,10 +813,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>5332.8</v>
+        <v>14308.8</v>
       </c>
       <c r="C35" t="n">
-        <v>23020.8</v>
+        <v>17424</v>
       </c>
     </row>
   </sheetData>
